--- a/tt.xlsx
+++ b/tt.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="47">
   <si>
     <t xml:space="preserve">Cabinet</t>
   </si>
@@ -355,10 +355,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A2:N25"/>
+  <dimension ref="A2:N26"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D4" activeCellId="0" sqref="D4"/>
+      <selection pane="topLeft" activeCell="G23" activeCellId="0" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -797,6 +797,18 @@
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C19" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>27</v>
+      </c>
       <c r="K19" s="5" t="s">
         <v>30</v>
       </c>
@@ -811,61 +823,53 @@
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="K20" s="2"/>
-      <c r="L20" s="2"/>
-      <c r="M20" s="2"/>
-      <c r="N20" s="2"/>
+      <c r="K20" s="5"/>
+      <c r="L20" s="5"/>
+      <c r="M20" s="5"/>
+      <c r="N20" s="5"/>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="0" t="s">
+      <c r="K21" s="2"/>
+      <c r="L21" s="2"/>
+      <c r="M21" s="2"/>
+      <c r="N21" s="2"/>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="0" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B22" s="3" t="s">
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B23" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C22" s="3" t="s">
+      <c r="C23" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D22" s="3" t="s">
+      <c r="D23" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="4" t="s">
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="B23" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C23" s="4" t="n">
+      <c r="B24" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C24" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="D23" s="4" t="s">
+      <c r="D24" s="4" t="s">
         <v>40</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="B24" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="C24" s="5" t="n">
-        <v>12</v>
-      </c>
-      <c r="D24" s="5" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="5" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>43</v>
@@ -874,6 +878,20 @@
         <v>12</v>
       </c>
       <c r="D25" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C26" s="5" t="n">
+        <v>12</v>
+      </c>
+      <c r="D26" s="5" t="s">
         <v>46</v>
       </c>
     </row>
